--- a/自动下载/不明确字段.xlsx
+++ b/自动下载/不明确字段.xlsx
@@ -306,292 +306,317 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">DIAGNOSIS_TIME/DIAGNOSIS_DOCTOR_NAME
+    <t>对应急救信息中的初步诊断时间字段(不同的诊断结果医生对应的字段不同，有两个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急救信息中的溶栓治疗中的直达字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸痛诊疗中的溶栓治疗中的直达字段（会同时出现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸痛诊疗中的字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这两个是同一个字段，出现在不同的诊断结果中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急救信息中的Grace中的字段（NSTEMI    UA）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸痛诊疗中的（肺动脉栓塞情况）字段（应该不会同时出现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急诊信息中的院前溶栓中的字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸痛诊疗中的字段（会同时出现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同手术的结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急救信息中的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸痛诊疗中的（会同时出现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸痛诊疗中的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸痛诊疗中的，不同再灌注措施中的相同字段（应该不会同时出现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXXXXX</t>
+  </si>
+  <si>
+    <t>InitialDiagnosisOfCP</t>
+  </si>
+  <si>
+    <t>胸痛诊断</t>
+  </si>
+  <si>
+    <t>STEMIReperfusionMeasure</t>
+  </si>
+  <si>
+    <t>再灌注措施</t>
+  </si>
+  <si>
+    <t>ACSReperfusionMeasure</t>
+  </si>
+  <si>
+    <t>DelayCAGTime</t>
+  </si>
+  <si>
+    <t>实际造影时间</t>
+  </si>
+  <si>
+    <t>D2BDelayReason1</t>
+  </si>
+  <si>
+    <t>症状不明显延误诊断</t>
+  </si>
+  <si>
+    <t>D2BDelayReason2</t>
+  </si>
+  <si>
+    <t>家属未到场</t>
+  </si>
+  <si>
+    <t>D2BDelayReason3</t>
+  </si>
+  <si>
+    <t>医生决策延误</t>
+  </si>
+  <si>
+    <t>D2BDelayReason4</t>
+  </si>
+  <si>
+    <t>排队挂号、缴费、办住院时间长</t>
+  </si>
+  <si>
+    <t>D2BDelayReason5</t>
+  </si>
+  <si>
+    <t>急诊科处理时间长</t>
+  </si>
+  <si>
+    <t>D2BDelayReason6</t>
+  </si>
+  <si>
+    <t>手术期间出现并发症</t>
+  </si>
+  <si>
+    <t>D2BDelayReason7</t>
+  </si>
+  <si>
+    <t>超过再灌注时间窗</t>
+  </si>
+  <si>
+    <t>D2BDelayReason8</t>
+  </si>
+  <si>
+    <t>未实施绕行急诊方案</t>
+  </si>
+  <si>
+    <t>D2BDelayReason9</t>
+  </si>
+  <si>
+    <t>导管室人员未到位</t>
+  </si>
+  <si>
+    <t>D2BDelayReason10</t>
+  </si>
+  <si>
+    <t>药物缺乏</t>
+  </si>
+  <si>
+    <t>D2BDelayReason11</t>
+  </si>
+  <si>
+    <t>知情同意时间过长</t>
+  </si>
+  <si>
+    <t>D2BDelayReason12</t>
+  </si>
+  <si>
+    <t>病情不稳定</t>
+  </si>
+  <si>
+    <t>D2BDelayReason13</t>
+  </si>
+  <si>
+    <t>绕行急诊科但未直接入导管室</t>
+  </si>
+  <si>
+    <t>D2BDelayReason14</t>
+  </si>
+  <si>
+    <t>导管室占台</t>
+  </si>
+  <si>
+    <t>D2BDelayReason15</t>
+  </si>
+  <si>
+    <t>缺少担架员转运时间长</t>
+  </si>
+  <si>
+    <t>D2BDelayReason16</t>
+  </si>
+  <si>
+    <t>经费问题</t>
+  </si>
+  <si>
+    <t>D2BDelayReason17</t>
+  </si>
+  <si>
+    <t>心内科会诊时间长</t>
+  </si>
+  <si>
+    <t>D2BDelayReason18</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>D2RADelayReason1</t>
+  </si>
+  <si>
+    <t>D2RADelayReason2</t>
+  </si>
+  <si>
+    <t>D2RADelayReason3</t>
+  </si>
+  <si>
+    <t>D2RADelayReason4</t>
+  </si>
+  <si>
+    <t>D2RADelayReason5</t>
+  </si>
+  <si>
+    <t>D2RADelayReason6</t>
+  </si>
+  <si>
+    <t>D2RADelayReason7</t>
+  </si>
+  <si>
+    <t>D2RADelayReason8</t>
+  </si>
+  <si>
+    <t>D2RADelayReason9</t>
+  </si>
+  <si>
+    <t>D2RADelayReason10</t>
+  </si>
+  <si>
+    <t>D2RADelayReason11</t>
+  </si>
+  <si>
+    <t>D2RADelayReason12</t>
+  </si>
+  <si>
+    <t>D2RADelayReason13</t>
+  </si>
+  <si>
+    <t>D2RADelayReason14</t>
+  </si>
+  <si>
+    <t>D2RADelayReason15</t>
+  </si>
+  <si>
+    <t>D2RADelayReason16</t>
+  </si>
+  <si>
+    <t>D2RADelayReason17</t>
+  </si>
+  <si>
+    <t>D2RADelayReason18</t>
+  </si>
+  <si>
+    <t>ZDMJCATreatmentMeasure</t>
+  </si>
+  <si>
+    <t>主动脉夹层治疗策略</t>
+  </si>
+  <si>
+    <t>ZDMJCBTreatmentMeasure</t>
+  </si>
+  <si>
+    <t>AfterACSIsDoneThrombolysis</t>
+  </si>
+  <si>
+    <t>溶栓</t>
+  </si>
+  <si>
+    <t>AfterFDMSSIsDoneThrombolysis</t>
+  </si>
+  <si>
+    <t>NonRefusionReason</t>
+  </si>
+  <si>
+    <t>选择原因</t>
+  </si>
+  <si>
+    <t>NonRefusionReasonOther</t>
+  </si>
+  <si>
+    <t>其他原因</t>
+  </si>
+  <si>
+    <t>填报平台的每个原因没有自己单独的字段，只有一个字段后面包含原因的编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找不到该字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不确定该字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DIAGNOSIS_TIME</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DIAGNOSIS_DOCTOR_NAME
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应急救信息中的初步诊断时间字段(不同的诊断结果医生对应的字段不同，有两个）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>急救信息中的溶栓治疗中的直达字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胸痛诊疗中的溶栓治疗中的直达字段（会同时出现）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胸痛诊疗中的字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这两个是同一个字段，出现在不同的诊断结果中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>急救信息中的Grace中的字段（NSTEMI    UA）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胸痛诊疗中的（肺动脉栓塞情况）字段（应该不会同时出现）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>急诊信息中的院前溶栓中的字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胸痛诊疗中的字段（会同时出现）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同手术的结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>急救信息中的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胸痛诊疗中的（会同时出现）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胸痛诊疗中的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胸痛诊疗中的，不同再灌注措施中的相同字段（应该不会同时出现）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXXXXXX</t>
-  </si>
-  <si>
-    <t>InitialDiagnosisOfCP</t>
-  </si>
-  <si>
-    <t>胸痛诊断</t>
-  </si>
-  <si>
-    <t>STEMIReperfusionMeasure</t>
-  </si>
-  <si>
-    <t>再灌注措施</t>
-  </si>
-  <si>
-    <t>ACSReperfusionMeasure</t>
-  </si>
-  <si>
-    <t>DelayCAGTime</t>
-  </si>
-  <si>
-    <t>实际造影时间</t>
-  </si>
-  <si>
-    <t>D2BDelayReason1</t>
-  </si>
-  <si>
-    <t>症状不明显延误诊断</t>
-  </si>
-  <si>
-    <t>D2BDelayReason2</t>
-  </si>
-  <si>
-    <t>家属未到场</t>
-  </si>
-  <si>
-    <t>D2BDelayReason3</t>
-  </si>
-  <si>
-    <t>医生决策延误</t>
-  </si>
-  <si>
-    <t>D2BDelayReason4</t>
-  </si>
-  <si>
-    <t>排队挂号、缴费、办住院时间长</t>
-  </si>
-  <si>
-    <t>D2BDelayReason5</t>
-  </si>
-  <si>
-    <t>急诊科处理时间长</t>
-  </si>
-  <si>
-    <t>D2BDelayReason6</t>
-  </si>
-  <si>
-    <t>手术期间出现并发症</t>
-  </si>
-  <si>
-    <t>D2BDelayReason7</t>
-  </si>
-  <si>
-    <t>超过再灌注时间窗</t>
-  </si>
-  <si>
-    <t>D2BDelayReason8</t>
-  </si>
-  <si>
-    <t>未实施绕行急诊方案</t>
-  </si>
-  <si>
-    <t>D2BDelayReason9</t>
-  </si>
-  <si>
-    <t>导管室人员未到位</t>
-  </si>
-  <si>
-    <t>D2BDelayReason10</t>
-  </si>
-  <si>
-    <t>药物缺乏</t>
-  </si>
-  <si>
-    <t>D2BDelayReason11</t>
-  </si>
-  <si>
-    <t>知情同意时间过长</t>
-  </si>
-  <si>
-    <t>D2BDelayReason12</t>
-  </si>
-  <si>
-    <t>病情不稳定</t>
-  </si>
-  <si>
-    <t>D2BDelayReason13</t>
-  </si>
-  <si>
-    <t>绕行急诊科但未直接入导管室</t>
-  </si>
-  <si>
-    <t>D2BDelayReason14</t>
-  </si>
-  <si>
-    <t>导管室占台</t>
-  </si>
-  <si>
-    <t>D2BDelayReason15</t>
-  </si>
-  <si>
-    <t>缺少担架员转运时间长</t>
-  </si>
-  <si>
-    <t>D2BDelayReason16</t>
-  </si>
-  <si>
-    <t>经费问题</t>
-  </si>
-  <si>
-    <t>D2BDelayReason17</t>
-  </si>
-  <si>
-    <t>心内科会诊时间长</t>
-  </si>
-  <si>
-    <t>D2BDelayReason18</t>
-  </si>
-  <si>
-    <t>其它</t>
-  </si>
-  <si>
-    <t>D2RADelayReason1</t>
-  </si>
-  <si>
-    <t>D2RADelayReason2</t>
-  </si>
-  <si>
-    <t>D2RADelayReason3</t>
-  </si>
-  <si>
-    <t>D2RADelayReason4</t>
-  </si>
-  <si>
-    <t>D2RADelayReason5</t>
-  </si>
-  <si>
-    <t>D2RADelayReason6</t>
-  </si>
-  <si>
-    <t>D2RADelayReason7</t>
-  </si>
-  <si>
-    <t>D2RADelayReason8</t>
-  </si>
-  <si>
-    <t>D2RADelayReason9</t>
-  </si>
-  <si>
-    <t>D2RADelayReason10</t>
-  </si>
-  <si>
-    <t>D2RADelayReason11</t>
-  </si>
-  <si>
-    <t>D2RADelayReason12</t>
-  </si>
-  <si>
-    <t>D2RADelayReason13</t>
-  </si>
-  <si>
-    <t>D2RADelayReason14</t>
-  </si>
-  <si>
-    <t>D2RADelayReason15</t>
-  </si>
-  <si>
-    <t>D2RADelayReason16</t>
-  </si>
-  <si>
-    <t>D2RADelayReason17</t>
-  </si>
-  <si>
-    <t>D2RADelayReason18</t>
-  </si>
-  <si>
-    <t>ZDMJCATreatmentMeasure</t>
-  </si>
-  <si>
-    <t>主动脉夹层治疗策略</t>
-  </si>
-  <si>
-    <t>ZDMJCBTreatmentMeasure</t>
-  </si>
-  <si>
-    <t>AfterACSIsDoneThrombolysis</t>
-  </si>
-  <si>
-    <t>溶栓</t>
-  </si>
-  <si>
-    <t>AfterFDMSSIsDoneThrombolysis</t>
-  </si>
-  <si>
-    <t>NonRefusionReason</t>
-  </si>
-  <si>
-    <t>选择原因</t>
-  </si>
-  <si>
-    <t>NonRefusionReasonOther</t>
-  </si>
-  <si>
-    <t>其他原因</t>
-  </si>
-  <si>
-    <t>填报平台的每个原因没有自己单独的字段，只有一个字段后面包含原因的编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找不到该字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不确定该字段</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +624,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,6 +653,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -668,7 +701,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,9 +712,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1050,13 +1080,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.44140625" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" customWidth="1"/>
     <col min="3" max="3" width="26.109375" customWidth="1"/>
     <col min="4" max="4" width="75.5546875" customWidth="1"/>
@@ -1241,9 +1271,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>88</v>
+    <row r="15" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -1252,7 +1282,7 @@
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1319,7 +1349,7 @@
         <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1333,7 +1363,7 @@
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1347,7 +1377,7 @@
         <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1361,7 +1391,7 @@
         <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1375,7 +1405,7 @@
         <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1389,7 +1419,7 @@
         <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1403,7 +1433,7 @@
         <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1417,7 +1447,7 @@
         <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1431,7 +1461,7 @@
         <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1445,7 +1475,7 @@
         <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1459,7 +1489,7 @@
         <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1473,7 +1503,7 @@
         <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1487,537 +1517,537 @@
         <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" t="s">
         <v>165</v>
       </c>
-      <c r="C33" t="s">
-        <v>166</v>
-      </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" t="s">
         <v>168</v>
       </c>
-      <c r="C35" t="s">
-        <v>169</v>
-      </c>
       <c r="D35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" t="s">
         <v>171</v>
-      </c>
-      <c r="C37" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" t="s">
         <v>173</v>
-      </c>
-      <c r="C38" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" t="s">
         <v>103</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>104</v>
-      </c>
-      <c r="C39" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
         <v>106</v>
       </c>
-      <c r="C40" t="s">
-        <v>107</v>
-      </c>
       <c r="D40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
         <v>109</v>
       </c>
-      <c r="C42" t="s">
-        <v>110</v>
-      </c>
       <c r="D42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" t="s">
         <v>111</v>
-      </c>
-      <c r="C43" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" t="s">
         <v>113</v>
-      </c>
-      <c r="C44" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
         <v>115</v>
-      </c>
-      <c r="C45" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" t="s">
         <v>117</v>
-      </c>
-      <c r="C46" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" t="s">
         <v>119</v>
-      </c>
-      <c r="C47" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" t="s">
         <v>121</v>
-      </c>
-      <c r="C48" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" t="s">
         <v>123</v>
-      </c>
-      <c r="C49" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
         <v>125</v>
-      </c>
-      <c r="C50" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" t="s">
         <v>127</v>
-      </c>
-      <c r="C51" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" t="s">
         <v>129</v>
-      </c>
-      <c r="C52" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" t="s">
         <v>131</v>
-      </c>
-      <c r="C53" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" t="s">
         <v>133</v>
-      </c>
-      <c r="C54" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" t="s">
         <v>135</v>
-      </c>
-      <c r="C55" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" t="s">
         <v>137</v>
-      </c>
-      <c r="C56" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" t="s">
         <v>139</v>
-      </c>
-      <c r="C57" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" t="s">
         <v>141</v>
-      </c>
-      <c r="C58" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" t="s">
         <v>143</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B60" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" t="s">
         <v>145</v>
-      </c>
-      <c r="C60" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B77" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B78" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D78" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
